--- a/data/trans_orig/P36B11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2256F58-5648-471A-A13F-A19385D12818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A24EA828-9FE9-42CE-908F-D6332231A323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D0B5141-433A-4196-8878-5190E07F2992}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{45A0E447-C21C-4111-9EA4-317FB8430FF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="695">
   <si>
-    <t>Población según la frecuencia de consumición de pescado en 2007 (Tasa respuesta: 99,95%)</t>
+    <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -85,2044 +85,2044 @@
     <t>0,71%</t>
   </si>
   <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pescado en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de pescado en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
   </si>
 </sst>
 </file>
@@ -2534,7 +2534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE25BB0-9461-47FE-A582-D394CDC3E93A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B049C7-55DB-4C78-B9F0-3AA5EEE72B13}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3280,7 +3280,7 @@
         <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3289,13 +3289,13 @@
         <v>11012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3304,13 +3304,13 @@
         <v>20248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3325,13 @@
         <v>73081</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -3340,13 +3340,13 @@
         <v>55809</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>122</v>
@@ -3355,13 +3355,13 @@
         <v>128890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3376,13 @@
         <v>498821</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>515</v>
@@ -3391,13 +3391,13 @@
         <v>549302</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>974</v>
@@ -3406,13 +3406,13 @@
         <v>1048123</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3427,13 @@
         <v>357696</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>300</v>
@@ -3442,13 +3442,13 @@
         <v>320635</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>639</v>
@@ -3457,13 +3457,13 @@
         <v>678330</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3478,13 @@
         <v>22099</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -3493,13 +3493,13 @@
         <v>29581</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>47</v>
@@ -3508,13 +3508,13 @@
         <v>51680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,7 +3570,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3582,13 +3582,13 @@
         <v>11142</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3600,10 +3600,10 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3612,13 +3612,13 @@
         <v>23507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3633,13 @@
         <v>55705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>50</v>
@@ -3648,13 +3648,13 @@
         <v>47187</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>105</v>
@@ -3663,13 +3663,13 @@
         <v>102892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3684,13 @@
         <v>301054</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>332</v>
@@ -3699,13 +3699,13 @@
         <v>327533</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>618</v>
@@ -3714,13 +3714,13 @@
         <v>628587</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3735,13 @@
         <v>299435</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>282</v>
@@ -3750,13 +3750,13 @@
         <v>278476</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>561</v>
@@ -3765,13 +3765,13 @@
         <v>577911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3786,13 @@
         <v>11174</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -3801,13 +3801,13 @@
         <v>18280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3819,10 +3819,10 @@
         <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3878,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3890,13 +3890,13 @@
         <v>23921</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -3905,13 +3905,13 @@
         <v>31758</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>54</v>
@@ -3920,13 +3920,13 @@
         <v>55679</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3941,13 @@
         <v>91458</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -3956,13 +3956,13 @@
         <v>88421</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>178</v>
@@ -3971,13 +3971,13 @@
         <v>179879</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3992,13 @@
         <v>448626</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>517</v>
@@ -4007,13 +4007,13 @@
         <v>536243</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>987</v>
@@ -4022,13 +4022,13 @@
         <v>984868</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4043,13 @@
         <v>351160</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>345</v>
@@ -4058,13 +4058,13 @@
         <v>359129</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>718</v>
@@ -4073,13 +4073,13 @@
         <v>710289</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4094,13 @@
         <v>27057</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -4109,13 +4109,13 @@
         <v>23061</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4124,13 +4124,13 @@
         <v>50119</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4198,13 @@
         <v>51911</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>58</v>
@@ -4213,13 +4213,13 @@
         <v>60318</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="M34" s="7">
         <v>109</v>
@@ -4228,13 +4228,13 @@
         <v>112229</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4249,13 @@
         <v>286178</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>239</v>
@@ -4264,13 +4264,13 @@
         <v>245620</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>525</v>
@@ -4279,13 +4279,13 @@
         <v>531798</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4300,13 @@
         <v>1627987</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>1789</v>
@@ -4315,28 +4315,28 @@
         <v>1831585</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>3379</v>
       </c>
       <c r="N36" s="7">
-        <v>3459572</v>
+        <v>3459571</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4351,13 @@
         <v>1233830</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>1127</v>
@@ -4366,28 +4366,28 @@
         <v>1155948</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>2338</v>
       </c>
       <c r="N37" s="7">
-        <v>2389779</v>
+        <v>2389778</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4402,13 @@
         <v>75769</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>82</v>
@@ -4417,13 +4417,13 @@
         <v>83673</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>157</v>
@@ -4432,13 +4432,13 @@
         <v>159442</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,7 +4480,7 @@
         <v>6508</v>
       </c>
       <c r="N39" s="7">
-        <v>6652819</v>
+        <v>6652818</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>56</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4515,7 +4515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A9EDF7-B228-4E17-A13F-0BB7AB9A70FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F470F6D-3C13-4D9F-8EED-B7C4B79EB474}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4532,7 +4532,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4639,13 +4639,13 @@
         <v>1467</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4654,13 +4654,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>98</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4669,13 +4669,13 @@
         <v>2680</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4690,13 @@
         <v>18442</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4705,13 +4705,13 @@
         <v>9664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -4720,13 +4720,13 @@
         <v>28106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4741,13 @@
         <v>65445</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>65</v>
@@ -4756,13 +4756,13 @@
         <v>73675</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M6" s="7">
         <v>133</v>
@@ -4771,13 +4771,13 @@
         <v>139120</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4792,13 @@
         <v>28692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4807,13 +4807,13 @@
         <v>27354</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>21</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4822,13 +4822,13 @@
         <v>56046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4843,13 @@
         <v>1720</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4879,7 +4879,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4947,13 @@
         <v>9016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4962,13 +4962,13 @@
         <v>2966</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4977,13 +4977,13 @@
         <v>11982</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4998,13 @@
         <v>57093</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>113</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -5013,13 +5013,13 @@
         <v>41260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -5028,13 +5028,13 @@
         <v>98353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5049,13 @@
         <v>317690</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H12" s="7">
         <v>313</v>
@@ -5064,13 +5064,13 @@
         <v>329780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M12" s="7">
         <v>611</v>
@@ -5079,13 +5079,13 @@
         <v>647469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5100,13 @@
         <v>182345</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -5115,13 +5115,13 @@
         <v>194315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>351</v>
@@ -5130,13 +5130,13 @@
         <v>376660</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5151,13 @@
         <v>21560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -5166,13 +5166,13 @@
         <v>15815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -5181,13 +5181,13 @@
         <v>37375</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5255,13 @@
         <v>11314</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5270,13 +5270,13 @@
         <v>7071</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5285,13 +5285,13 @@
         <v>18386</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5306,13 @@
         <v>90936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -5321,13 +5321,13 @@
         <v>81742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -5336,13 +5336,13 @@
         <v>172678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5357,13 @@
         <v>523035</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H18" s="7">
         <v>480</v>
@@ -5372,13 +5372,13 @@
         <v>525135</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M18" s="7">
         <v>965</v>
@@ -5387,13 +5387,13 @@
         <v>1048169</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5408,13 @@
         <v>369988</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>369</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>352</v>
@@ -5423,13 +5423,13 @@
         <v>387957</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
         <v>687</v>
@@ -5438,13 +5438,13 @@
         <v>757945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5459,13 @@
         <v>18658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -5474,13 +5474,13 @@
         <v>28269</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>55</v>
+        <v>387</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -5489,13 +5489,13 @@
         <v>46927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>379</v>
+        <v>239</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,7 +5551,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5563,13 +5563,13 @@
         <v>9762</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>193</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5578,13 +5578,13 @@
         <v>15874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>392</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -5593,13 +5593,13 @@
         <v>25636</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5614,13 @@
         <v>67278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="H23" s="7">
         <v>47</v>
@@ -5629,28 +5629,28 @@
         <v>50171</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>388</v>
+        <v>245</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="M23" s="7">
         <v>109</v>
       </c>
       <c r="N23" s="7">
-        <v>117448</v>
+        <v>117449</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5665,13 @@
         <v>383139</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="H24" s="7">
         <v>384</v>
@@ -5680,28 +5680,28 @@
         <v>421465</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="M24" s="7">
         <v>736</v>
       </c>
       <c r="N24" s="7">
-        <v>804604</v>
+        <v>804605</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5716,13 @@
         <v>272849</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -5731,13 +5731,13 @@
         <v>267646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>487</v>
@@ -5746,13 +5746,13 @@
         <v>540494</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5767,13 @@
         <v>22479</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>413</v>
+        <v>13</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5782,28 +5782,28 @@
         <v>20031</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
       </c>
       <c r="N26" s="7">
-        <v>42510</v>
+        <v>42511</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,7 +5845,7 @@
         <v>1390</v>
       </c>
       <c r="N27" s="7">
-        <v>1530693</v>
+        <v>1530694</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>56</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5871,13 +5871,13 @@
         <v>17526</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>263</v>
+        <v>386</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>98</v>
+        <v>314</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -5889,10 +5889,10 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -5901,13 +5901,13 @@
         <v>36449</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>422</v>
+        <v>66</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>95</v>
+        <v>433</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>423</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5922,13 @@
         <v>93092</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -5937,13 +5937,13 @@
         <v>77330</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>427</v>
+        <v>357</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="M29" s="7">
         <v>163</v>
@@ -5952,13 +5952,13 @@
         <v>170422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5973,13 @@
         <v>490984</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="H30" s="7">
         <v>479</v>
@@ -5988,13 +5988,13 @@
         <v>501774</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="M30" s="7">
         <v>956</v>
@@ -6003,13 +6003,13 @@
         <v>992758</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>327</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6024,13 @@
         <v>315490</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="H31" s="7">
         <v>392</v>
@@ -6039,13 +6039,13 @@
         <v>413106</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="M31" s="7">
         <v>694</v>
@@ -6054,13 +6054,13 @@
         <v>728596</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6075,13 @@
         <v>29660</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>449</v>
+        <v>193</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H32" s="7">
         <v>35</v>
@@ -6090,13 +6090,13 @@
         <v>36849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="M32" s="7">
         <v>61</v>
@@ -6105,13 +6105,13 @@
         <v>66510</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>152</v>
+        <v>462</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,10 +6182,10 @@
         <v>101</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>64</v>
+        <v>464</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>454</v>
+        <v>144</v>
       </c>
       <c r="H34" s="7">
         <v>44</v>
@@ -6194,13 +6194,13 @@
         <v>46047</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>457</v>
+        <v>185</v>
       </c>
       <c r="M34" s="7">
         <v>88</v>
@@ -6209,13 +6209,13 @@
         <v>95132</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>458</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6230,13 @@
         <v>326841</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="H35" s="7">
         <v>243</v>
@@ -6245,13 +6245,13 @@
         <v>260167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M35" s="7">
         <v>549</v>
@@ -6260,13 +6260,13 @@
         <v>587007</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6281,13 @@
         <v>1780291</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="H36" s="7">
         <v>1721</v>
@@ -6296,13 +6296,13 @@
         <v>1851828</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="M36" s="7">
         <v>3401</v>
@@ -6311,13 +6311,13 @@
         <v>3632119</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6332,13 @@
         <v>1169364</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>489</v>
       </c>
       <c r="H37" s="7">
         <v>1190</v>
@@ -6347,13 +6347,13 @@
         <v>1290376</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>481</v>
+        <v>340</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>482</v>
+        <v>423</v>
       </c>
       <c r="M37" s="7">
         <v>2275</v>
@@ -6362,13 +6362,13 @@
         <v>2459740</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6383,13 @@
         <v>94077</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>487</v>
+        <v>228</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H38" s="7">
         <v>92</v>
@@ -6398,13 +6398,13 @@
         <v>100964</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>94</v>
+        <v>347</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>490</v>
+        <v>394</v>
       </c>
       <c r="M38" s="7">
         <v>179</v>
@@ -6413,13 +6413,13 @@
         <v>195041</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>268</v>
+        <v>432</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,7 +6475,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6496,7 +6496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2365E-DDE1-4B29-BADE-D1307067B0A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C600FC-36FB-4AF0-A61B-53E45D03AA50}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6513,7 +6513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6626,7 +6626,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6656,7 +6656,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6671,13 @@
         <v>6886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6686,13 +6686,13 @@
         <v>11007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -6701,13 +6701,13 @@
         <v>17893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,13 +6722,13 @@
         <v>73832</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H6" s="7">
         <v>63</v>
@@ -6737,13 +6737,13 @@
         <v>61891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="M6" s="7">
         <v>135</v>
@@ -6752,13 +6752,13 @@
         <v>135724</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6773,13 @@
         <v>34769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>375</v>
+        <v>519</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -6788,13 +6788,13 @@
         <v>37921</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -6803,13 +6803,13 @@
         <v>72690</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6824,13 @@
         <v>1058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>527</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6839,13 +6839,13 @@
         <v>2540</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>529</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6854,13 +6854,13 @@
         <v>3599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6928,13 @@
         <v>13106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>524</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>525</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6943,13 +6943,13 @@
         <v>8537</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>527</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>534</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -6958,13 +6958,13 @@
         <v>21643</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>454</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>529</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +6979,13 @@
         <v>55414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>430</v>
+        <v>536</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -6994,13 +6994,13 @@
         <v>49488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -7009,13 +7009,13 @@
         <v>104903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7030,13 @@
         <v>345181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H12" s="7">
         <v>343</v>
@@ -7045,13 +7045,13 @@
         <v>347074</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="M12" s="7">
         <v>680</v>
@@ -7060,13 +7060,13 @@
         <v>692255</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7081,13 @@
         <v>136957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -7096,13 +7096,13 @@
         <v>146678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
@@ -7111,13 +7111,13 @@
         <v>283635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7132,13 @@
         <v>5459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>462</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -7147,13 +7147,13 @@
         <v>6821</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>557</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>558</v>
+        <v>313</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>415</v>
+        <v>565</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -7162,13 +7162,13 @@
         <v>12280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>559</v>
+        <v>464</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>107</v>
+        <v>566</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7236,13 @@
         <v>13925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>568</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -7251,13 +7251,13 @@
         <v>18195</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>562</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -7266,13 +7266,13 @@
         <v>32119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>563</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>562</v>
+        <v>464</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7287,13 @@
         <v>75537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -7302,13 +7302,13 @@
         <v>69895</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -7317,13 +7317,13 @@
         <v>145432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>576</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>570</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>571</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,13 +7338,13 @@
         <v>633602</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H18" s="7">
         <v>614</v>
@@ -7353,13 +7353,13 @@
         <v>655508</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M18" s="7">
         <v>1206</v>
@@ -7368,13 +7368,13 @@
         <v>1289110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,13 +7389,13 @@
         <v>289450</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H19" s="7">
         <v>260</v>
@@ -7404,13 +7404,13 @@
         <v>280227</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M19" s="7">
         <v>528</v>
@@ -7419,13 +7419,13 @@
         <v>569677</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7440,13 @@
         <v>8942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -7455,13 +7455,13 @@
         <v>18107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>591</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>592</v>
+        <v>64</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -7470,13 +7470,13 @@
         <v>27049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>594</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,7 +7532,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7544,13 +7544,13 @@
         <v>10804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>350</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>597</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7559,13 +7559,13 @@
         <v>7879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>231</v>
+        <v>600</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -7574,13 +7574,13 @@
         <v>18683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>602</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>600</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7595,13 @@
         <v>101815</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -7610,13 +7610,13 @@
         <v>87990</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>202</v>
+        <v>607</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="M23" s="7">
         <v>173</v>
@@ -7625,13 +7625,13 @@
         <v>189806</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7646,13 @@
         <v>412689</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H24" s="7">
         <v>409</v>
@@ -7661,13 +7661,13 @@
         <v>429818</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M24" s="7">
         <v>788</v>
@@ -7676,13 +7676,13 @@
         <v>842506</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7697,13 @@
         <v>215108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="H25" s="7">
         <v>215</v>
@@ -7712,13 +7712,13 @@
         <v>235591</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -7727,13 +7727,13 @@
         <v>450699</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>333</v>
+        <v>627</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7748,13 @@
         <v>17034</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>628</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -7763,13 +7763,13 @@
         <v>20552</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>110</v>
+        <v>632</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>630</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -7778,13 +7778,13 @@
         <v>37585</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,7 +7840,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7852,13 +7852,13 @@
         <v>15922</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>637</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -7867,13 +7867,13 @@
         <v>19826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>413</v>
+        <v>597</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>230</v>
+        <v>636</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -7885,10 +7885,10 @@
         <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>635</v>
+        <v>433</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7903,13 @@
         <v>88629</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -7918,13 +7918,13 @@
         <v>86979</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>640</v>
+        <v>402</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>641</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>642</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>168</v>
@@ -7939,7 +7939,7 @@
         <v>644</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7954,13 @@
         <v>589549</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H30" s="7">
         <v>582</v>
@@ -7969,7 +7969,7 @@
         <v>627394</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>648</v>
+        <v>127</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>649</v>
@@ -8059,10 +8059,10 @@
         <v>51</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>275</v>
+        <v>663</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>180</v>
+        <v>632</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -8071,13 +8071,13 @@
         <v>14860</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>350</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>663</v>
+        <v>311</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -8086,13 +8086,13 @@
         <v>22499</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8160,13 @@
         <v>53757</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>416</v>
+        <v>666</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>665</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>97</v>
+        <v>667</v>
       </c>
       <c r="H34" s="7">
         <v>52</v>
@@ -8175,10 +8175,10 @@
         <v>54436</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>106</v>
+        <v>669</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>144</v>
@@ -8190,13 +8190,13 @@
         <v>108193</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>563</v>
+        <v>191</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>271</v>
+        <v>389</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>667</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,13 +8211,13 @@
         <v>328281</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H35" s="7">
         <v>291</v>
@@ -8226,13 +8226,13 @@
         <v>305359</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M35" s="7">
         <v>597</v>
@@ -8241,7 +8241,7 @@
         <v>633640</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>673</v>
+        <v>607</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>674</v>
@@ -8268,7 +8268,7 @@
         <v>677</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>578</v>
+        <v>678</v>
       </c>
       <c r="H36" s="7">
         <v>2011</v>
@@ -8277,13 +8277,13 @@
         <v>2121685</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M36" s="7">
         <v>3984</v>
@@ -8292,13 +8292,13 @@
         <v>4176538</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8313,13 @@
         <v>908642</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H37" s="7">
         <v>918</v>
@@ -8331,10 +8331,10 @@
         <v>88</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>688</v>
+        <v>592</v>
       </c>
       <c r="M37" s="7">
         <v>1776</v>
@@ -8370,7 +8370,7 @@
         <v>51</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>693</v>
+        <v>635</v>
       </c>
       <c r="H38" s="7">
         <v>59</v>
@@ -8379,13 +8379,13 @@
         <v>62881</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>378</v>
+        <v>693</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>458</v>
+        <v>240</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>694</v>
+        <v>347</v>
       </c>
       <c r="M38" s="7">
         <v>94</v>
@@ -8394,13 +8394,13 @@
         <v>103012</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>599</v>
+        <v>694</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>232</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,7 +8456,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A24EA828-9FE9-42CE-908F-D6332231A323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E23F59-BC47-4386-837B-177CAD200B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{45A0E447-C21C-4111-9EA4-317FB8430FF2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8592501E-5766-45C8-8373-C45250B4D8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="692">
   <si>
     <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -85,13 +85,13 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,56%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -100,28 +100,28 @@
     <t>9,37%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -130,28 +130,28 @@
     <t>58,68%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
   </si>
   <si>
     <t>59,0%</t>
   </si>
   <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
   </si>
   <si>
     <t>58,83%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -160,1960 +160,1951 @@
     <t>29,96%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>32,05%</t>
   </si>
   <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>9,86%</t>
   </si>
   <si>
     <t>60,69%</t>
   </si>
   <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
+    <t>59,18%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>1,19%</t>
@@ -2122,7 +2113,7 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,34%</t>
   </si>
 </sst>
 </file>
@@ -2534,7 +2525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B049C7-55DB-4C78-B9F0-3AA5EEE72B13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED635CE-B381-41A3-A648-139BBEC25012}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3295,7 +3286,7 @@
         <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3304,13 +3295,13 @@
         <v>20248</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3316,13 @@
         <v>73081</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -3340,13 +3331,13 @@
         <v>55809</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>122</v>
@@ -3355,13 +3346,13 @@
         <v>128890</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3367,13 @@
         <v>498821</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>515</v>
@@ -3391,13 +3382,13 @@
         <v>549302</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>974</v>
@@ -3406,13 +3397,13 @@
         <v>1048123</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3418,13 @@
         <v>357696</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>300</v>
@@ -3442,13 +3433,13 @@
         <v>320635</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>639</v>
@@ -3457,13 +3448,13 @@
         <v>678330</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3469,13 @@
         <v>22099</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -3493,13 +3484,13 @@
         <v>29581</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>47</v>
@@ -3508,10 +3499,10 @@
         <v>51680</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>147</v>
@@ -3588,7 +3579,7 @@
         <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3600,10 +3591,10 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3612,13 +3603,13 @@
         <v>23507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3624,13 @@
         <v>55705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>50</v>
@@ -3648,13 +3639,13 @@
         <v>47187</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>105</v>
@@ -3663,13 +3654,13 @@
         <v>102892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3675,13 @@
         <v>301054</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>332</v>
@@ -3699,13 +3690,13 @@
         <v>327533</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>618</v>
@@ -3714,13 +3705,13 @@
         <v>628587</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3726,13 @@
         <v>299435</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>282</v>
@@ -3750,13 +3741,13 @@
         <v>278476</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>561</v>
@@ -3765,13 +3756,13 @@
         <v>577911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3777,13 @@
         <v>11174</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -3801,13 +3792,13 @@
         <v>18280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3819,10 +3810,10 @@
         <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3869,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3890,13 +3881,13 @@
         <v>23921</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -3905,13 +3896,13 @@
         <v>31758</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>54</v>
@@ -3920,13 +3911,13 @@
         <v>55679</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3932,13 @@
         <v>91458</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -3956,13 +3947,13 @@
         <v>88421</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>178</v>
@@ -3971,13 +3962,13 @@
         <v>179879</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3983,13 @@
         <v>448626</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>517</v>
@@ -4007,13 +3998,13 @@
         <v>536243</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>987</v>
@@ -4022,13 +4013,13 @@
         <v>984868</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4034,13 @@
         <v>351160</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>345</v>
@@ -4058,13 +4049,13 @@
         <v>359129</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>718</v>
@@ -4073,13 +4064,13 @@
         <v>710289</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,7 +4085,7 @@
         <v>27057</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>226</v>
@@ -4112,10 +4103,10 @@
         <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4124,13 +4115,13 @@
         <v>50119</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4189,13 @@
         <v>51911</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>58</v>
@@ -4213,10 +4204,10 @@
         <v>60318</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>94</v>
@@ -4228,13 +4219,13 @@
         <v>112229</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4240,13 @@
         <v>286178</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>239</v>
@@ -4264,13 +4255,13 @@
         <v>245620</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>525</v>
@@ -4279,13 +4270,13 @@
         <v>531798</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,7 +4318,7 @@
         <v>3379</v>
       </c>
       <c r="N36" s="7">
-        <v>3459571</v>
+        <v>3459572</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>255</v>
@@ -4378,7 +4369,7 @@
         <v>2338</v>
       </c>
       <c r="N37" s="7">
-        <v>2389778</v>
+        <v>2389779</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>264</v>
@@ -4405,10 +4396,10 @@
         <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>82</v>
@@ -4417,10 +4408,10 @@
         <v>83673</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>146</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>271</v>
@@ -4438,7 +4429,7 @@
         <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,7 +4471,7 @@
         <v>6508</v>
       </c>
       <c r="N39" s="7">
-        <v>6652818</v>
+        <v>6652819</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>56</v>
@@ -4494,7 +4485,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4515,7 +4506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F470F6D-3C13-4D9F-8EED-B7C4B79EB474}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473852D3-F25D-4306-B5B1-7FFAAFE350C6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4532,7 +4523,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4639,7 +4630,7 @@
         <v>1467</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
@@ -4654,13 +4645,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4669,13 +4660,13 @@
         <v>2680</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4681,13 @@
         <v>18442</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4705,13 +4696,13 @@
         <v>9664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -4720,13 +4711,13 @@
         <v>28106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4732,13 @@
         <v>65445</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H6" s="7">
         <v>65</v>
@@ -4756,13 +4747,13 @@
         <v>73675</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M6" s="7">
         <v>133</v>
@@ -4771,13 +4762,13 @@
         <v>139120</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4783,13 @@
         <v>28692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4807,13 +4798,13 @@
         <v>27354</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4822,13 +4813,13 @@
         <v>56046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4834,13 @@
         <v>1720</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4864,7 +4855,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4879,7 +4870,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +4938,13 @@
         <v>9016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4962,13 +4953,13 @@
         <v>2966</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4977,13 +4968,13 @@
         <v>11982</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4989,13 @@
         <v>57093</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -5013,13 +5004,13 @@
         <v>41260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -5028,13 +5019,13 @@
         <v>98353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5040,13 @@
         <v>317690</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>313</v>
@@ -5064,13 +5055,13 @@
         <v>329780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>611</v>
@@ -5079,13 +5070,13 @@
         <v>647469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5091,13 @@
         <v>182345</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -5115,13 +5106,13 @@
         <v>194315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
         <v>351</v>
@@ -5130,13 +5121,13 @@
         <v>376660</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5142,13 @@
         <v>21560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -5166,13 +5157,13 @@
         <v>15815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -5181,13 +5172,13 @@
         <v>37375</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5246,13 @@
         <v>11314</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>349</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5270,13 +5261,13 @@
         <v>7071</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5285,13 +5276,13 @@
         <v>18386</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,10 +5300,10 @@
         <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -5321,13 +5312,13 @@
         <v>81742</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -5336,13 +5327,13 @@
         <v>172678</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5348,13 @@
         <v>523035</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H18" s="7">
         <v>480</v>
@@ -5372,13 +5363,13 @@
         <v>525135</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M18" s="7">
         <v>965</v>
@@ -5387,13 +5378,13 @@
         <v>1048169</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5399,13 @@
         <v>369988</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>352</v>
@@ -5423,13 +5414,13 @@
         <v>387957</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M19" s="7">
         <v>687</v>
@@ -5438,13 +5429,13 @@
         <v>757945</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5450,13 @@
         <v>18658</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -5474,13 +5465,13 @@
         <v>28269</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -5489,13 +5480,13 @@
         <v>46927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5554,13 @@
         <v>9762</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>391</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5578,13 +5569,13 @@
         <v>15874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -5593,13 +5584,13 @@
         <v>25636</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5605,13 @@
         <v>67278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H23" s="7">
         <v>47</v>
@@ -5629,28 +5620,28 @@
         <v>50171</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M23" s="7">
         <v>109</v>
       </c>
       <c r="N23" s="7">
-        <v>117449</v>
+        <v>117448</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5656,13 @@
         <v>383139</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H24" s="7">
         <v>384</v>
@@ -5680,28 +5671,28 @@
         <v>421465</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M24" s="7">
         <v>736</v>
       </c>
       <c r="N24" s="7">
-        <v>804605</v>
+        <v>804604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>414</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5707,13 @@
         <v>272849</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -5731,13 +5722,13 @@
         <v>267646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="M25" s="7">
         <v>487</v>
@@ -5746,13 +5737,13 @@
         <v>540494</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5758,13 @@
         <v>22479</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>13</v>
+        <v>416</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5782,28 +5773,28 @@
         <v>20031</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
       </c>
       <c r="N26" s="7">
-        <v>42511</v>
+        <v>42510</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,7 +5836,7 @@
         <v>1390</v>
       </c>
       <c r="N27" s="7">
-        <v>1530694</v>
+        <v>1530693</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>56</v>
@@ -5859,7 +5850,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5871,13 +5862,13 @@
         <v>17526</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -5889,10 +5880,10 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>349</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -5901,13 +5892,13 @@
         <v>36449</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>231</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5913,13 @@
         <v>93092</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>435</v>
+        <v>358</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -5937,13 +5928,13 @@
         <v>77330</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>357</v>
+        <v>430</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="M29" s="7">
         <v>163</v>
@@ -5952,13 +5943,13 @@
         <v>170422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5964,13 @@
         <v>490984</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H30" s="7">
         <v>479</v>
@@ -5988,13 +5979,13 @@
         <v>501774</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M30" s="7">
         <v>956</v>
@@ -6003,13 +5994,13 @@
         <v>992758</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>291</v>
+        <v>443</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6024,13 +6015,13 @@
         <v>315490</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H31" s="7">
         <v>392</v>
@@ -6039,13 +6030,13 @@
         <v>413106</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M31" s="7">
         <v>694</v>
@@ -6054,13 +6045,13 @@
         <v>728596</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>456</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6066,13 @@
         <v>29660</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>193</v>
+        <v>454</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H32" s="7">
         <v>35</v>
@@ -6090,13 +6081,13 @@
         <v>36849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>281</v>
+        <v>456</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>154</v>
+        <v>457</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M32" s="7">
         <v>61</v>
@@ -6105,13 +6096,13 @@
         <v>66510</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>462</v>
+        <v>60</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,13 +6170,13 @@
         <v>49085</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>101</v>
+        <v>461</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>464</v>
+        <v>64</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>144</v>
+        <v>416</v>
       </c>
       <c r="H34" s="7">
         <v>44</v>
@@ -6194,13 +6185,13 @@
         <v>46047</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>465</v>
+        <v>95</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>88</v>
@@ -6209,13 +6200,13 @@
         <v>95132</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6230,13 +6221,13 @@
         <v>326841</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H35" s="7">
         <v>243</v>
@@ -6245,13 +6236,13 @@
         <v>260167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>472</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M35" s="7">
         <v>549</v>
@@ -6260,13 +6251,13 @@
         <v>587007</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>475</v>
+        <v>394</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>477</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6272,13 @@
         <v>1780291</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H36" s="7">
         <v>1721</v>
@@ -6296,13 +6287,13 @@
         <v>1851828</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M36" s="7">
         <v>3401</v>
@@ -6311,13 +6302,13 @@
         <v>3632119</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6323,13 @@
         <v>1169364</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>487</v>
+        <v>218</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H37" s="7">
         <v>1190</v>
@@ -6347,13 +6338,13 @@
         <v>1290376</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>340</v>
+        <v>482</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="M37" s="7">
         <v>2275</v>
@@ -6362,13 +6353,13 @@
         <v>2459740</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>492</v>
+        <v>218</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6374,13 @@
         <v>94077</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>228</v>
+        <v>486</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H38" s="7">
         <v>92</v>
@@ -6398,13 +6389,13 @@
         <v>100964</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>394</v>
+        <v>489</v>
       </c>
       <c r="M38" s="7">
         <v>179</v>
@@ -6413,13 +6404,13 @@
         <v>195041</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>497</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,7 +6466,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6496,7 +6487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C600FC-36FB-4AF0-A61B-53E45D03AA50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DF2083-E450-490E-984D-5E66705EBB6A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6513,7 +6504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6626,7 +6617,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6641,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6656,7 +6647,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6662,13 @@
         <v>6886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6686,13 +6677,13 @@
         <v>11007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -6701,13 +6692,13 @@
         <v>17893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6722,13 +6713,13 @@
         <v>73832</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="H6" s="7">
         <v>63</v>
@@ -6737,13 +6728,13 @@
         <v>61891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="M6" s="7">
         <v>135</v>
@@ -6752,13 +6743,13 @@
         <v>135724</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6764,13 @@
         <v>34769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -6788,13 +6779,13 @@
         <v>37921</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -6803,13 +6794,13 @@
         <v>72690</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>525</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6815,13 @@
         <v>1058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6839,13 +6830,13 @@
         <v>2540</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6854,13 +6845,13 @@
         <v>3599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6919,13 @@
         <v>13106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>525</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>526</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>533</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6943,13 +6934,13 @@
         <v>8537</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>527</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>534</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -6958,13 +6949,13 @@
         <v>21643</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>535</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +6970,13 @@
         <v>55414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -6994,13 +6985,13 @@
         <v>49488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -7009,13 +7000,13 @@
         <v>104903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7021,13 @@
         <v>345181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H12" s="7">
         <v>343</v>
@@ -7045,13 +7036,13 @@
         <v>347074</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="M12" s="7">
         <v>680</v>
@@ -7060,13 +7051,13 @@
         <v>692255</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7072,13 @@
         <v>136957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -7096,13 +7087,13 @@
         <v>146678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
@@ -7111,13 +7102,13 @@
         <v>283635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7123,13 @@
         <v>5459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -7147,13 +7138,13 @@
         <v>6821</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>557</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -7162,13 +7153,13 @@
         <v>12280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>464</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>566</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7227,13 @@
         <v>13925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>560</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>568</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -7251,13 +7242,13 @@
         <v>18195</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>569</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -7266,13 +7257,13 @@
         <v>32119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>562</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>464</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7278,13 @@
         <v>75537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>572</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -7302,13 +7293,13 @@
         <v>69895</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -7317,13 +7308,13 @@
         <v>145432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,13 +7329,13 @@
         <v>633602</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H18" s="7">
         <v>614</v>
@@ -7353,13 +7344,13 @@
         <v>655508</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="M18" s="7">
         <v>1206</v>
@@ -7368,13 +7359,13 @@
         <v>1289110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,13 +7380,13 @@
         <v>289450</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>586</v>
+        <v>552</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="H19" s="7">
         <v>260</v>
@@ -7404,13 +7395,13 @@
         <v>280227</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M19" s="7">
         <v>528</v>
@@ -7419,13 +7410,13 @@
         <v>569677</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7431,13 @@
         <v>8942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>593</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -7455,13 +7446,13 @@
         <v>18107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>589</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -7470,13 +7461,13 @@
         <v>27049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>591</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>596</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>597</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,13 +7535,13 @@
         <v>10804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>598</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7559,13 +7550,13 @@
         <v>7879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -7574,13 +7565,13 @@
         <v>18683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7586,13 @@
         <v>101815</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -7610,13 +7601,13 @@
         <v>87990</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="M23" s="7">
         <v>173</v>
@@ -7625,13 +7616,13 @@
         <v>189806</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7637,13 @@
         <v>412689</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H24" s="7">
         <v>409</v>
@@ -7661,13 +7652,13 @@
         <v>429818</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="M24" s="7">
         <v>788</v>
@@ -7676,13 +7667,13 @@
         <v>842506</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7688,13 @@
         <v>215108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="H25" s="7">
         <v>215</v>
@@ -7712,13 +7703,13 @@
         <v>235591</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -7727,13 +7718,13 @@
         <v>450699</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7739,13 @@
         <v>17034</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -7763,13 +7754,13 @@
         <v>20552</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>595</v>
+        <v>60</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>629</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -7778,13 +7769,13 @@
         <v>37585</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>633</v>
+        <v>558</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>463</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,7 +7831,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7852,13 +7843,13 @@
         <v>15922</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>636</v>
+        <v>555</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -7867,13 +7858,13 @@
         <v>19826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>597</v>
+        <v>632</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -7885,10 +7876,10 @@
         <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7894,13 @@
         <v>88629</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -7918,13 +7909,13 @@
         <v>86979</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>639</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>640</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>641</v>
       </c>
       <c r="M29" s="7">
         <v>168</v>
@@ -7933,13 +7924,13 @@
         <v>175607</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7945,13 @@
         <v>589549</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="H30" s="7">
         <v>582</v>
@@ -7969,7 +7960,7 @@
         <v>627394</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>127</v>
+        <v>648</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>649</v>
@@ -8062,7 +8053,7 @@
         <v>663</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>632</v>
+        <v>194</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -8071,13 +8062,13 @@
         <v>14860</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>311</v>
+        <v>664</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>664</v>
+        <v>139</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -8089,10 +8080,10 @@
         <v>107</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>567</v>
+        <v>14</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>665</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8151,13 @@
         <v>53757</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>557</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>667</v>
+        <v>273</v>
       </c>
       <c r="H34" s="7">
         <v>52</v>
@@ -8175,13 +8166,13 @@
         <v>54436</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>144</v>
+        <v>597</v>
       </c>
       <c r="M34" s="7">
         <v>103</v>
@@ -8190,10 +8181,10 @@
         <v>108193</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>191</v>
+        <v>562</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>226</v>
@@ -8211,13 +8202,13 @@
         <v>328281</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H35" s="7">
         <v>291</v>
@@ -8226,13 +8217,13 @@
         <v>305359</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>673</v>
+        <v>114</v>
       </c>
       <c r="M35" s="7">
         <v>597</v>
@@ -8241,13 +8232,13 @@
         <v>633640</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>607</v>
+        <v>672</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>674</v>
+        <v>323</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8262,13 +8253,13 @@
         <v>2054853</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="H36" s="7">
         <v>2011</v>
@@ -8277,13 +8268,13 @@
         <v>2121685</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>679</v>
+        <v>126</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="M36" s="7">
         <v>3984</v>
@@ -8292,13 +8283,13 @@
         <v>4176538</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8304,13 @@
         <v>908642</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H37" s="7">
         <v>918</v>
@@ -8331,10 +8322,10 @@
         <v>88</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>592</v>
+        <v>685</v>
       </c>
       <c r="M37" s="7">
         <v>1776</v>
@@ -8343,13 +8334,13 @@
         <v>1901728</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8355,13 @@
         <v>40131</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>635</v>
+        <v>348</v>
       </c>
       <c r="H38" s="7">
         <v>59</v>
@@ -8379,13 +8370,13 @@
         <v>62881</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>240</v>
+        <v>691</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>347</v>
+        <v>520</v>
       </c>
       <c r="M38" s="7">
         <v>94</v>
@@ -8394,13 +8385,13 @@
         <v>103012</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>694</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>386</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,7 +8447,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E23F59-BC47-4386-837B-177CAD200B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AEDF0FE-9B42-499D-890F-7A59C4038311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8592501E-5766-45C8-8373-C45250B4D8D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61CA5598-7066-4702-A3FE-FC3E5AB56853}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="695">
   <si>
     <t>Población según la frecuencia de consumo de pescado en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -85,2035 +85,2044 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,52%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
   </si>
   <si>
     <t>59,98%</t>
   </si>
   <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de pescado en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
   </si>
   <si>
     <t>60,33%</t>
   </si>
   <si>
-    <t>59,18%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
   </si>
   <si>
     <t>26,84%</t>
   </si>
   <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>27,47%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
 </sst>
 </file>
@@ -2525,7 +2534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED635CE-B381-41A3-A648-139BBEC25012}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58F5BED-8B7D-4F06-AA81-219F8F7B8F7A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3271,7 +3280,7 @@
         <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3280,13 +3289,13 @@
         <v>11012</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3295,13 +3304,13 @@
         <v>20248</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3325,13 @@
         <v>73081</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -3331,13 +3340,13 @@
         <v>55809</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>122</v>
@@ -3346,13 +3355,13 @@
         <v>128890</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3376,13 @@
         <v>498821</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>515</v>
@@ -3382,13 +3391,13 @@
         <v>549302</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>974</v>
@@ -3397,13 +3406,13 @@
         <v>1048123</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3427,13 @@
         <v>357696</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>300</v>
@@ -3433,13 +3442,13 @@
         <v>320635</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>639</v>
@@ -3448,13 +3457,13 @@
         <v>678330</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3478,13 @@
         <v>22099</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -3484,13 +3493,13 @@
         <v>29581</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>47</v>
@@ -3499,13 +3508,13 @@
         <v>51680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3570,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3573,13 +3582,13 @@
         <v>11142</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3591,10 +3600,10 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -3603,13 +3612,13 @@
         <v>23507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3633,13 @@
         <v>55705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>50</v>
@@ -3639,13 +3648,13 @@
         <v>47187</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>105</v>
@@ -3654,13 +3663,13 @@
         <v>102892</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3684,13 @@
         <v>301054</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>332</v>
@@ -3690,13 +3699,13 @@
         <v>327533</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>618</v>
@@ -3705,13 +3714,13 @@
         <v>628587</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3735,13 @@
         <v>299435</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>282</v>
@@ -3741,13 +3750,13 @@
         <v>278476</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>561</v>
@@ -3756,13 +3765,13 @@
         <v>577911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3786,13 @@
         <v>11174</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -3792,13 +3801,13 @@
         <v>18280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3810,10 +3819,10 @@
         <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +3878,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3881,13 +3890,13 @@
         <v>23921</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -3896,13 +3905,13 @@
         <v>31758</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>54</v>
@@ -3911,13 +3920,13 @@
         <v>55679</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>23</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3941,13 @@
         <v>91458</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -3947,13 +3956,13 @@
         <v>88421</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>178</v>
@@ -3962,13 +3971,13 @@
         <v>179879</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3992,13 @@
         <v>448626</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>517</v>
@@ -3998,13 +4007,13 @@
         <v>536243</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>987</v>
@@ -4013,13 +4022,13 @@
         <v>984868</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4043,13 @@
         <v>351160</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>345</v>
@@ -4049,13 +4058,13 @@
         <v>359129</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>718</v>
@@ -4064,13 +4073,13 @@
         <v>710289</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4094,13 @@
         <v>27057</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>23</v>
@@ -4100,13 +4109,13 @@
         <v>23061</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -4115,13 +4124,13 @@
         <v>50119</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4198,13 @@
         <v>51911</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>58</v>
@@ -4204,13 +4213,13 @@
         <v>60318</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>109</v>
@@ -4219,13 +4228,13 @@
         <v>112229</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4249,13 @@
         <v>286178</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>239</v>
@@ -4255,13 +4264,13 @@
         <v>245620</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>525</v>
@@ -4270,13 +4279,13 @@
         <v>531798</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4300,13 @@
         <v>1627987</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>1789</v>
@@ -4306,13 +4315,13 @@
         <v>1831585</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>3379</v>
@@ -4321,13 +4330,13 @@
         <v>3459572</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4351,13 @@
         <v>1233830</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>1127</v>
@@ -4357,13 +4366,13 @@
         <v>1155948</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>2338</v>
@@ -4372,13 +4381,13 @@
         <v>2389779</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4402,13 @@
         <v>75769</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H38" s="7">
         <v>82</v>
@@ -4408,13 +4417,13 @@
         <v>83673</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="M38" s="7">
         <v>157</v>
@@ -4423,13 +4432,13 @@
         <v>159442</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>186</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,7 +4494,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4506,7 +4515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473852D3-F25D-4306-B5B1-7FFAAFE350C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5D3FEB-FE0E-4EF0-827D-55EF0B537B22}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4523,7 +4532,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4630,13 +4639,13 @@
         <v>1467</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4645,13 +4654,13 @@
         <v>1213</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4660,13 +4669,13 @@
         <v>2680</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4690,13 @@
         <v>18442</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4696,13 +4705,13 @@
         <v>9664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -4711,13 +4720,13 @@
         <v>28106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4741,13 @@
         <v>65445</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H6" s="7">
         <v>65</v>
@@ -4747,13 +4756,13 @@
         <v>73675</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7">
         <v>133</v>
@@ -4762,13 +4771,13 @@
         <v>139120</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4792,13 @@
         <v>28692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>85</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4798,13 +4807,13 @@
         <v>27354</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4813,13 +4822,13 @@
         <v>56046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4843,13 @@
         <v>1720</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4855,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4870,7 +4879,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4947,13 @@
         <v>9016</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4953,13 +4962,13 @@
         <v>2966</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4968,13 +4977,13 @@
         <v>11982</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4998,13 @@
         <v>57093</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -5004,13 +5013,13 @@
         <v>41260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -5019,13 +5028,13 @@
         <v>98353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5049,13 @@
         <v>317690</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H12" s="7">
         <v>313</v>
@@ -5055,13 +5064,13 @@
         <v>329780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M12" s="7">
         <v>611</v>
@@ -5070,13 +5079,13 @@
         <v>647469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5100,13 @@
         <v>182345</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -5106,13 +5115,13 @@
         <v>194315</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M13" s="7">
         <v>351</v>
@@ -5121,13 +5130,13 @@
         <v>376660</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5151,13 @@
         <v>21560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -5157,13 +5166,13 @@
         <v>15815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -5172,13 +5181,13 @@
         <v>37375</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5255,13 @@
         <v>11314</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5261,13 +5270,13 @@
         <v>7071</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -5276,13 +5285,13 @@
         <v>18386</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5306,13 @@
         <v>90936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -5312,13 +5321,13 @@
         <v>81742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
@@ -5327,13 +5336,13 @@
         <v>172678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5357,13 @@
         <v>523035</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H18" s="7">
         <v>480</v>
@@ -5363,13 +5372,13 @@
         <v>525135</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M18" s="7">
         <v>965</v>
@@ -5378,13 +5387,13 @@
         <v>1048169</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5408,13 @@
         <v>369988</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>352</v>
@@ -5414,13 +5423,13 @@
         <v>387957</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>687</v>
@@ -5429,13 +5438,13 @@
         <v>757945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5459,13 @@
         <v>18658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -5465,13 +5474,13 @@
         <v>28269</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>55</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -5480,13 +5489,13 @@
         <v>46927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,7 +5551,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5554,13 +5563,13 @@
         <v>9762</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>355</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5569,13 +5578,13 @@
         <v>15874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>227</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -5584,13 +5593,13 @@
         <v>25636</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5614,13 @@
         <v>67278</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
         <v>47</v>
@@ -5620,13 +5629,13 @@
         <v>50171</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>388</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M23" s="7">
         <v>109</v>
@@ -5635,13 +5644,13 @@
         <v>117448</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5665,13 @@
         <v>383139</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H24" s="7">
         <v>384</v>
@@ -5671,13 +5680,13 @@
         <v>421465</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M24" s="7">
         <v>736</v>
@@ -5686,13 +5695,13 @@
         <v>804604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5716,13 @@
         <v>272849</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -5722,13 +5731,13 @@
         <v>267646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M25" s="7">
         <v>487</v>
@@ -5737,13 +5746,13 @@
         <v>540494</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5767,13 @@
         <v>22479</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5773,13 +5782,13 @@
         <v>20031</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -5788,13 +5797,13 @@
         <v>42510</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,7 +5859,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5862,13 +5871,13 @@
         <v>17526</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>423</v>
+        <v>263</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -5880,10 +5889,10 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -5892,13 +5901,13 @@
         <v>36449</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>268</v>
+        <v>422</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>426</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5922,13 @@
         <v>93092</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -5928,13 +5937,13 @@
         <v>77330</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>163</v>
@@ -5943,13 +5952,13 @@
         <v>170422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5973,13 @@
         <v>490984</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H30" s="7">
         <v>479</v>
@@ -5979,13 +5988,13 @@
         <v>501774</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M30" s="7">
         <v>956</v>
@@ -5994,13 +6003,13 @@
         <v>992758</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>444</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6024,13 @@
         <v>315490</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H31" s="7">
         <v>392</v>
@@ -6030,13 +6039,13 @@
         <v>413106</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M31" s="7">
         <v>694</v>
@@ -6045,13 +6054,13 @@
         <v>728596</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6075,13 @@
         <v>29660</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H32" s="7">
         <v>35</v>
@@ -6081,13 +6090,13 @@
         <v>36849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>456</v>
+        <v>15</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>457</v>
+        <v>266</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="M32" s="7">
         <v>61</v>
@@ -6096,13 +6105,13 @@
         <v>66510</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6179,13 @@
         <v>49085</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>461</v>
+        <v>101</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="H34" s="7">
         <v>44</v>
@@ -6185,13 +6194,13 @@
         <v>46047</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>95</v>
+        <v>455</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>457</v>
       </c>
       <c r="M34" s="7">
         <v>88</v>
@@ -6200,13 +6209,13 @@
         <v>95132</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>386</v>
+        <v>459</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6230,13 @@
         <v>326841</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H35" s="7">
         <v>243</v>
@@ -6236,13 +6245,13 @@
         <v>260167</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>464</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M35" s="7">
         <v>549</v>
@@ -6251,13 +6260,13 @@
         <v>587007</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,7 +6302,7 @@
         <v>474</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M36" s="7">
         <v>3401</v>
@@ -6302,13 +6311,13 @@
         <v>3632119</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6332,13 @@
         <v>1169364</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>478</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>479</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>480</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7">
         <v>1190</v>
@@ -6338,13 +6347,13 @@
         <v>1290376</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M37" s="7">
         <v>2275</v>
@@ -6353,13 +6362,13 @@
         <v>2459740</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6383,13 @@
         <v>94077</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H38" s="7">
         <v>92</v>
@@ -6389,13 +6398,13 @@
         <v>100964</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M38" s="7">
         <v>179</v>
@@ -6404,13 +6413,13 @@
         <v>195041</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>490</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>350</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,7 +6475,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6487,7 +6496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DF2083-E450-490E-984D-5E66705EBB6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDEFD1-3A4D-4556-A2D8-6D87F38EF91C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6504,7 +6513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6617,7 +6626,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6632,7 +6641,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6647,7 +6656,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>492</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,13 +6671,13 @@
         <v>6886</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6677,13 +6686,13 @@
         <v>11007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -6692,13 +6701,13 @@
         <v>17893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,13 +6722,13 @@
         <v>73832</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H6" s="7">
         <v>63</v>
@@ -6728,13 +6737,13 @@
         <v>61891</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M6" s="7">
         <v>135</v>
@@ -6743,13 +6752,13 @@
         <v>135724</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,13 +6773,13 @@
         <v>34769</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -6800,7 +6809,7 @@
         <v>517</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,13 +6824,13 @@
         <v>1058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>519</v>
+        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6836,7 +6845,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>521</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6845,13 +6854,13 @@
         <v>3599</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6928,13 @@
         <v>13106</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6934,13 +6943,13 @@
         <v>8537</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>527</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -6949,13 +6958,13 @@
         <v>21643</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>454</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>528</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,13 +6979,13 @@
         <v>55414</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>528</v>
+        <v>430</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
@@ -6985,13 +6994,13 @@
         <v>49488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M11" s="7">
         <v>101</v>
@@ -7000,13 +7009,13 @@
         <v>104903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7030,13 @@
         <v>345181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H12" s="7">
         <v>343</v>
@@ -7036,13 +7045,13 @@
         <v>347074</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M12" s="7">
         <v>680</v>
@@ -7051,13 +7060,13 @@
         <v>692255</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,13 +7081,13 @@
         <v>136957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -7087,13 +7096,13 @@
         <v>146678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
@@ -7102,13 +7111,13 @@
         <v>283635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>554</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,7 +7138,7 @@
         <v>556</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>486</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -7141,10 +7150,10 @@
         <v>557</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>558</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>558</v>
+        <v>415</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -7153,13 +7162,13 @@
         <v>12280</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>559</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,13 +7236,13 @@
         <v>13925</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>561</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -7242,13 +7251,13 @@
         <v>18195</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>561</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>562</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>347</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -7257,13 +7266,13 @@
         <v>32119</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,13 +7287,13 @@
         <v>75537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -7293,13 +7302,13 @@
         <v>69895</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>569</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -7308,13 +7317,13 @@
         <v>145432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7338,13 @@
         <v>633602</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H18" s="7">
         <v>614</v>
@@ -7344,13 +7353,13 @@
         <v>655508</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M18" s="7">
         <v>1206</v>
@@ -7359,13 +7368,13 @@
         <v>1289110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7389,13 @@
         <v>289450</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H19" s="7">
         <v>260</v>
@@ -7395,13 +7404,13 @@
         <v>280227</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M19" s="7">
         <v>528</v>
@@ -7410,13 +7419,13 @@
         <v>569677</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>586</v>
+        <v>514</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7440,13 @@
         <v>8942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>589</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>561</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -7446,13 +7455,13 @@
         <v>18107</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>592</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -7461,13 +7470,13 @@
         <v>27049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>595</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,7 +7532,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7535,13 +7544,13 @@
         <v>10804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>596</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7550,13 +7559,13 @@
         <v>7879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -7565,13 +7574,13 @@
         <v>18683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +7595,13 @@
         <v>101815</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H23" s="7">
         <v>83</v>
@@ -7601,13 +7610,13 @@
         <v>87990</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>602</v>
+        <v>202</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M23" s="7">
         <v>173</v>
@@ -7616,13 +7625,13 @@
         <v>189806</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7646,13 @@
         <v>412689</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H24" s="7">
         <v>409</v>
@@ -7652,13 +7661,13 @@
         <v>429818</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="M24" s="7">
         <v>788</v>
@@ -7667,13 +7676,13 @@
         <v>842506</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,13 +7697,13 @@
         <v>215108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H25" s="7">
         <v>215</v>
@@ -7703,13 +7712,13 @@
         <v>235591</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -7718,13 +7727,13 @@
         <v>450699</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>622</v>
+        <v>333</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7748,13 @@
         <v>17034</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -7754,13 +7763,13 @@
         <v>20552</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>60</v>
+        <v>629</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>628</v>
+        <v>110</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -7769,13 +7778,13 @@
         <v>37585</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>463</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,7 +7840,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7843,13 +7852,13 @@
         <v>15922</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>555</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>590</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -7858,10 +7867,10 @@
         <v>19826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>632</v>
+        <v>413</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>633</v>
+        <v>230</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>634</v>
@@ -7876,10 +7885,10 @@
         <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>426</v>
+        <v>635</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +7903,13 @@
         <v>88629</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -7909,13 +7918,13 @@
         <v>86979</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M29" s="7">
         <v>168</v>
@@ -7924,13 +7933,13 @@
         <v>175607</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,10 +8059,10 @@
         <v>51</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>663</v>
+        <v>275</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -8062,13 +8071,13 @@
         <v>14860</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>139</v>
+        <v>636</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -8077,13 +8086,13 @@
         <v>22499</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>14</v>
+        <v>560</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>559</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,13 +8160,13 @@
         <v>53757</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>557</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="H34" s="7">
         <v>52</v>
@@ -8169,10 +8178,10 @@
         <v>666</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>667</v>
+        <v>106</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>597</v>
+        <v>144</v>
       </c>
       <c r="M34" s="7">
         <v>103</v>
@@ -8181,13 +8190,13 @@
         <v>108193</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>426</v>
+        <v>271</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,7 +8214,7 @@
         <v>668</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>669</v>
@@ -8223,7 +8232,7 @@
         <v>671</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>114</v>
+        <v>672</v>
       </c>
       <c r="M35" s="7">
         <v>597</v>
@@ -8232,13 +8241,13 @@
         <v>633640</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>323</v>
+        <v>674</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8253,13 +8262,13 @@
         <v>2054853</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>676</v>
+        <v>578</v>
       </c>
       <c r="H36" s="7">
         <v>2011</v>
@@ -8268,13 +8277,13 @@
         <v>2121685</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>126</v>
+        <v>678</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M36" s="7">
         <v>3984</v>
@@ -8283,13 +8292,13 @@
         <v>4176538</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,13 +8313,13 @@
         <v>908642</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="H37" s="7">
         <v>918</v>
@@ -8322,10 +8331,10 @@
         <v>88</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="M37" s="7">
         <v>1776</v>
@@ -8334,13 +8343,13 @@
         <v>1901728</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,13 +8364,13 @@
         <v>40131</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>348</v>
+        <v>693</v>
       </c>
       <c r="H38" s="7">
         <v>59</v>
@@ -8370,13 +8379,13 @@
         <v>62881</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>690</v>
+        <v>378</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>691</v>
+        <v>458</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>520</v>
+        <v>694</v>
       </c>
       <c r="M38" s="7">
         <v>94</v>
@@ -8385,13 +8394,13 @@
         <v>103012</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>280</v>
+        <v>599</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>690</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8447,7 +8456,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
